--- a/outputs-HGR-r202/f__CAG-917.xlsx
+++ b/outputs-HGR-r202/f__CAG-917.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,41 +516,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84696.fa</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2.220444382879478e-14</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.220444382879478e-14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.752374705645096e-06</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.220444382879478e-14</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9999962476252278</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9999962476252278</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>g__UMGS1688</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>g__UMGS1688</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/outputs-HGR-r202/f__CAG-917.xlsx
+++ b/outputs-HGR-r202/f__CAG-917.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -501,6 +506,11 @@
         <v>0.9996622346306919</v>
       </c>
       <c r="H2" t="inlineStr">
+        <is>
+          <t>g__CAG-349</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>g__CAG-349</t>
         </is>
